--- a/content/dadesref/entitats/Codis_Territori_Terçons.xlsx
+++ b/content/dadesref/entitats/Codis_Territori_Terçons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\02.Propostes_Desembre19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\06.OIAD_Paquet_03\04.Terçons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB6AA78-8443-42E6-B073-EFC3C2F14CF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892AD327-EBE7-461B-973A-23F9C769E4DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Codi</t>
   </si>
@@ -60,13 +60,31 @@
     <t>Quate Lòcs</t>
   </si>
   <si>
-    <t>Codis_Territori_Terçons</t>
-  </si>
-  <si>
     <t>No consta</t>
   </si>
   <si>
     <t>Altres/Diversos</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Terçons</t>
   </si>
 </sst>
 </file>
@@ -188,7 +206,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -197,6 +215,21 @@
     <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -248,21 +281,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -304,8 +322,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -590,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -603,8 +621,8 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>1</v>
+      <c r="A4" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -612,8 +630,8 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>2</v>
+      <c r="A5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -621,8 +639,8 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>3</v>
+      <c r="A6" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -630,8 +648,8 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>4</v>
+      <c r="A7" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -639,16 +657,16 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>5</v>
+      <c r="A8" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>6</v>
+      <c r="A9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -659,7 +677,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -667,7 +685,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +693,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C11:C950 C4 C5 C6 C7 C8 C9 C10" numberStoredAsText="1"/>
+    <ignoredError sqref="C11:C950 C4 C5 C6 C7 C8 C9 C10 A4:A11" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -684,6 +702,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -815,15 +842,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -834,6 +852,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -851,22 +885,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
